--- a/doors-detector/results/house10_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house10_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7876966609762833</v>
+        <v>0.7998867818386346</v>
       </c>
       <c r="F2" t="n">
         <v>720</v>
       </c>
       <c r="G2" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H2" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2104579012576782</v>
+        <v>0.2275786020857228</v>
       </c>
       <c r="F3" t="n">
         <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5768657954628235</v>
+        <v>0.5671909355820736</v>
       </c>
       <c r="F4" t="n">
         <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8241144077029051</v>
+        <v>0.8120975604670101</v>
       </c>
       <c r="F5" t="n">
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H5" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5165515969526003</v>
+        <v>0.5695923219489891</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6911313557966253</v>
+        <v>0.7322809771871982</v>
       </c>
       <c r="F7" t="n">
         <v>93</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8519620570235955</v>
+        <v>0.7899013057966668</v>
       </c>
       <c r="F8" t="n">
         <v>720</v>
       </c>
       <c r="G8" t="n">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="H8" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.570605195557129</v>
+        <v>0.6868146980413492</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7389640896290076</v>
+        <v>0.7348429738501069</v>
       </c>
       <c r="F10" t="n">
         <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7886119208153575</v>
+        <v>0.7895272854850436</v>
       </c>
       <c r="F11" t="n">
         <v>720</v>
       </c>
       <c r="G11" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H11" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6579078754803388</v>
+        <v>0.6511151759029907</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7579765574726913</v>
+        <v>0.769942357016314</v>
       </c>
       <c r="F13" t="n">
         <v>93</v>
       </c>
       <c r="G13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8043024737498052</v>
+        <v>0.8147911343316669</v>
       </c>
       <c r="F14" t="n">
         <v>720</v>
       </c>
       <c r="G14" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="H14" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7480607613503697</v>
+        <v>0.7634875727128647</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7707050412578186</v>
+        <v>0.7316993858066632</v>
       </c>
       <c r="F16" t="n">
         <v>93</v>
       </c>
       <c r="G16" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7717519626517417</v>
+        <v>0.7441901893218414</v>
       </c>
       <c r="F17" t="n">
         <v>720</v>
       </c>
       <c r="G17" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H17" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7935513312824771</v>
+        <v>0.8091516936070642</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7599639385813391</v>
+        <v>0.808472477020945</v>
       </c>
       <c r="F19" t="n">
         <v>93</v>
       </c>
       <c r="G19" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
